--- a/New Analysis Code/Templates/FamFace Rotation Analysis Template.xlsx
+++ b/New Analysis Code/Templates/FamFace Rotation Analysis Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emban\Documents\GitHub\EMC-Scrotation-Station\New Analysis Code Beta\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emban\Documents\GitHub\EMC-Scrotation-Station\New Analysis Code\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15E64FC-FCE6-443B-AC51-29FAAE95600D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DD4202-85BE-4C12-BF66-4FB070914E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Colors</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Reaction Time (ms)</t>
   </si>
   <si>
-    <t>Analysis Types</t>
-  </si>
-  <si>
     <t>Protocol Names</t>
   </si>
   <si>
@@ -83,6 +80,18 @@
   </si>
   <si>
     <t>white</t>
+  </si>
+  <si>
+    <t>Axes</t>
+  </si>
+  <si>
+    <t>Y-axis</t>
+  </si>
+  <si>
+    <t>Log</t>
+  </si>
+  <si>
+    <t>Distance</t>
   </si>
 </sst>
 </file>
@@ -449,7 +458,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -472,25 +481,25 @@
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I1" t="s">
         <v>0</v>
@@ -501,10 +510,10 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
@@ -519,13 +528,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
         <v>5</v>
@@ -533,31 +542,42 @@
     </row>
     <row r="3" spans="1:10">
       <c r="B3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="C4" s="2" t="s">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="C5" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="15" spans="1:10">
       <c r="C15" s="1"/>
